--- a/Kriging/Article/GaussianModel/content/results/metrics_8_9.xlsx
+++ b/Kriging/Article/GaussianModel/content/results/metrics_8_9.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_4</t>
+          <t>model_8_9_24</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9995200925385741</v>
+        <v>0.9992702082810224</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7946180271686237</v>
+        <v>0.7210170493526922</v>
       </c>
       <c r="D2" t="n">
-        <v>0.999000174711407</v>
+        <v>0.9982010558433433</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9988718171990779</v>
+        <v>0.9965931751190312</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9989495183879418</v>
+        <v>0.9974336655150468</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0002386866968346063</v>
+        <v>0.0003585534599805011</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1219236111119715</v>
+        <v>0.1656163309402015</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0004760041468201418</v>
+        <v>0.0008601249578248964</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0004922152339028939</v>
+        <v>0.001508983620541008</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0004841124048991794</v>
+        <v>0.001184554225419264</v>
       </c>
       <c r="L2" t="n">
-        <v>0.006015146009649849</v>
+        <v>0.004324961738195732</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01544948856223423</v>
+        <v>0.0189355079145108</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000067535615518</v>
+        <v>1.000055828619873</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01552084916627741</v>
+        <v>0.01908760279088936</v>
       </c>
       <c r="P2" t="n">
-        <v>3534.680717515817</v>
+        <v>3533.866865575515</v>
       </c>
       <c r="Q2" t="n">
-        <v>9488.007532961825</v>
+        <v>8522.886739903166</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_3</t>
+          <t>model_8_9_23</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9995501105515171</v>
+        <v>0.9992740992239</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7943983864379272</v>
+        <v>0.7210098808583447</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9992143226308919</v>
+        <v>0.9982041836534853</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9991812165834453</v>
+        <v>0.9966229892360897</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9992065954554815</v>
+        <v>0.9974495893995361</v>
       </c>
       <c r="G3" t="n">
-        <v>0.000223756942807431</v>
+        <v>0.0003566418035516129</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1220539993376985</v>
+        <v>0.1656205864681091</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0003740510367411074</v>
+        <v>0.0008586294652847105</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0003572272778541646</v>
+        <v>0.001495778065258887</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0003656389390311931</v>
+        <v>0.001177204168453763</v>
       </c>
       <c r="L3" t="n">
-        <v>0.005862885110163802</v>
+        <v>0.004346627717257179</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01495850737230928</v>
+        <v>0.01888496236563931</v>
       </c>
       <c r="N3" t="n">
-        <v>1.00006331129074</v>
+        <v>1.000055530965124</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01502760015278369</v>
+        <v>0.01903665124715141</v>
       </c>
       <c r="P3" t="n">
-        <v>3534.809900343967</v>
+        <v>3533.877557262549</v>
       </c>
       <c r="Q3" t="n">
-        <v>9488.136715789975</v>
+        <v>8522.8974315902</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_5</t>
+          <t>model_8_9_22</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9994940118461153</v>
+        <v>0.9992782678331981</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7943228267600198</v>
+        <v>0.7210040884085642</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9988631863206792</v>
+        <v>0.9982071060777972</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9985618339262824</v>
+        <v>0.996656131987658</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9987320301586498</v>
+        <v>0.997467006125339</v>
       </c>
       <c r="G4" t="n">
-        <v>0.000251658185787206</v>
+        <v>0.0003545937270275024</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1220988548265125</v>
+        <v>0.1656240251165195</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0005412225832775883</v>
+        <v>0.0008572321733906523</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0006274579348200725</v>
+        <v>0.001481098159186934</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0005843414317675996</v>
+        <v>0.001169165054198046</v>
       </c>
       <c r="L4" t="n">
-        <v>0.005978435978825</v>
+        <v>0.004370331716729879</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01586373807736392</v>
+        <v>0.01883065922976417</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000071205855638</v>
+        <v>1.000055212069064</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01593701208426864</v>
+        <v>0.01898191193450324</v>
       </c>
       <c r="P4" t="n">
-        <v>3534.57487759362</v>
+        <v>3533.889075709517</v>
       </c>
       <c r="Q4" t="n">
-        <v>9487.901693039626</v>
+        <v>8522.908950037167</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_2</t>
+          <t>model_8_9_21</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9995555679469228</v>
+        <v>0.9992826126389215</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7941142691156393</v>
+        <v>0.7209977257433531</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9994000016892488</v>
+        <v>0.9982096212051826</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9994121344136122</v>
+        <v>0.9966923345904746</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9994118124517484</v>
+        <v>0.9974856771502078</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0002210426535174674</v>
+        <v>0.000352459083560655</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1222226636534378</v>
+        <v>0.1656278022694417</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0002856515905939278</v>
+        <v>0.0008560296214223718</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0002564800641091183</v>
+        <v>0.001465062954390731</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0002710650860017588</v>
+        <v>0.001160546987640141</v>
       </c>
       <c r="L5" t="n">
-        <v>0.005806873712739073</v>
+        <v>0.004396504048873467</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01486750327114366</v>
+        <v>0.01877389367075075</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000062543291516</v>
+        <v>1.000054879694085</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01493617570711259</v>
+        <v>0.01892469041989994</v>
       </c>
       <c r="P5" t="n">
-        <v>3534.834309745455</v>
+        <v>3533.901152034909</v>
       </c>
       <c r="Q5" t="n">
-        <v>9488.161125191462</v>
+        <v>8522.921026362559</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_6</t>
+          <t>model_8_9_20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9994587746762303</v>
+        <v>0.9992871234271579</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7939362331326802</v>
+        <v>0.7209865135957977</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9987143170943767</v>
+        <v>0.9982115898664871</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9982487033392954</v>
+        <v>0.9967319512272279</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9985069157837974</v>
+        <v>0.9975057072434378</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0002691837388607999</v>
+        <v>0.0003502428913412621</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1223283535036763</v>
+        <v>0.1656344582845701</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0006120973349590265</v>
+        <v>0.000855088350002044</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0007640737784493345</v>
+        <v>0.001447515572869724</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0006880849529641997</v>
+        <v>0.001151301609958356</v>
       </c>
       <c r="L6" t="n">
-        <v>0.005968532530881988</v>
+        <v>0.004425355324240675</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01640681988871701</v>
+        <v>0.01871477735216912</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000076164653215</v>
+        <v>1.000054534621545</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0164826023699927</v>
+        <v>0.01886509926382215</v>
       </c>
       <c r="P6" t="n">
-        <v>3534.440232734878</v>
+        <v>3533.913767337819</v>
       </c>
       <c r="Q6" t="n">
-        <v>9487.767048180885</v>
+        <v>8522.93364166547</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_7</t>
+          <t>model_8_9_19</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9994174922556227</v>
+        <v>0.9992917684610186</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7935517624756462</v>
+        <v>0.7209718469871833</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9985842011829827</v>
+        <v>0.9982129299413816</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9979072376923457</v>
+        <v>0.9967752537708493</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9982780663454232</v>
+        <v>0.9975271756490647</v>
       </c>
       <c r="G7" t="n">
-        <v>0.000289715956849031</v>
+        <v>0.0003479607429977939</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1225565918939594</v>
+        <v>0.1656431650170081</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0006740438711163807</v>
+        <v>0.0008544476231301927</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0009130519344234673</v>
+        <v>0.001428335594052067</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0007935497709099859</v>
+        <v>0.001141392344136865</v>
       </c>
       <c r="L7" t="n">
-        <v>0.005957093780831177</v>
+        <v>0.004457252529423804</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01702104452873063</v>
+        <v>0.01865370587839837</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000081974176738</v>
+        <v>1.000054179279298</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01709966409041536</v>
+        <v>0.01880353724824522</v>
       </c>
       <c r="P7" t="n">
-        <v>3534.293219148217</v>
+        <v>3533.926841784061</v>
       </c>
       <c r="Q7" t="n">
-        <v>9487.620034594225</v>
+        <v>8522.946716111712</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_8</t>
+          <t>model_8_9_18</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9993698521435515</v>
+        <v>0.9992967923155507</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7932776607001735</v>
+        <v>0.7209584070485175</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9983866963619193</v>
+        <v>0.9982128915536564</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9976265553496196</v>
+        <v>0.9968252416498468</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9980431871949049</v>
+        <v>0.9975511419686334</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0003134102352278794</v>
+        <v>0.0003454924765348442</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1227193105484602</v>
+        <v>0.1656511435451752</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0007680734129930741</v>
+        <v>0.0008544659773633593</v>
       </c>
       <c r="J8" t="n">
-        <v>0.001035510923218942</v>
+        <v>0.001406194482234378</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0009017933699533705</v>
+        <v>0.001130330105259057</v>
       </c>
       <c r="L8" t="n">
-        <v>0.005954419551145907</v>
+        <v>0.004493208458084644</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01770339614954937</v>
+        <v>0.01858742791606316</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000088678394844</v>
+        <v>1.000053794957501</v>
       </c>
       <c r="O8" t="n">
-        <v>0.01778516746759388</v>
+        <v>0.01873672692424676</v>
       </c>
       <c r="P8" t="n">
-        <v>3534.135995139807</v>
+        <v>3533.94107938116</v>
       </c>
       <c r="Q8" t="n">
-        <v>9487.462810585814</v>
+        <v>8522.960953708811</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_1</t>
+          <t>model_8_9_17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9995288942373424</v>
+        <v>0.9993017944294851</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7929545673354326</v>
+        <v>0.7209395571391082</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9995057280855567</v>
+        <v>0.9982115659397894</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9996172067446359</v>
+        <v>0.9968795005451326</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9995634953419243</v>
+        <v>0.9975764887948217</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0002343090853690741</v>
+        <v>0.0003430348914297507</v>
       </c>
       <c r="H9" t="n">
-        <v>0.122911112726677</v>
+        <v>0.1656623336656743</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0002353165934248737</v>
+        <v>0.0008550997900179535</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0001670089914253816</v>
+        <v>0.001382161610831895</v>
       </c>
       <c r="K9" t="n">
-        <v>0.000201162321496202</v>
+        <v>0.001118630659906787</v>
       </c>
       <c r="L9" t="n">
-        <v>0.005687260621334136</v>
+        <v>0.004532577675750062</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01530715797818374</v>
+        <v>0.0185212011335591</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000066296984758</v>
+        <v>1.000053412298846</v>
       </c>
       <c r="O9" t="n">
-        <v>0.01537786116263592</v>
+        <v>0.01866996819116902</v>
       </c>
       <c r="P9" t="n">
-        <v>3534.717738873105</v>
+        <v>3533.955356783374</v>
       </c>
       <c r="Q9" t="n">
-        <v>9488.044554319113</v>
+        <v>8522.975231111024</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_9</t>
+          <t>model_8_9_16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.999329189195743</v>
+        <v>0.9993067864365944</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7926190991286927</v>
+        <v>0.7209127246613054</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9982874835909852</v>
+        <v>0.9982077430834072</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9973157524820417</v>
+        <v>0.9969401140036803</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9978448197800693</v>
+        <v>0.9976035920208269</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0003336343523256161</v>
+        <v>0.0003405822719017795</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1231102611456698</v>
+        <v>0.1656782625836007</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0008153073556838247</v>
+        <v>0.0008569276033896957</v>
       </c>
       <c r="J10" t="n">
-        <v>0.001171111205405025</v>
+        <v>0.001355314115193461</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0009932106067211018</v>
+        <v>0.001106120505414016</v>
       </c>
       <c r="L10" t="n">
-        <v>0.005938830316949643</v>
+        <v>0.004587185876082454</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01826566046781819</v>
+        <v>0.0184548712241993</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000094400742233</v>
+        <v>1.000053030413357</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01835002886350847</v>
+        <v>0.01860310550289409</v>
       </c>
       <c r="P10" t="n">
-        <v>3534.010929836368</v>
+        <v>3533.969707681407</v>
       </c>
       <c r="Q10" t="n">
-        <v>9487.337745282375</v>
+        <v>8522.989582009057</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_0</t>
+          <t>model_8_9_15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.999477395437653</v>
+        <v>0.9993113528750234</v>
       </c>
       <c r="C11" t="n">
-        <v>0.792568301246209</v>
+        <v>0.7208795178784566</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9995799263018114</v>
+        <v>0.9982010055717698</v>
       </c>
       <c r="E11" t="n">
-        <v>0.999767970966104</v>
+        <v>0.9970052358797695</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9996731840246283</v>
+        <v>0.9976313484133199</v>
       </c>
       <c r="G11" t="n">
-        <v>0.00025992251999309</v>
+        <v>0.0003383387382251125</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1231404169630663</v>
+        <v>0.1656979755643581</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0001999917631501864</v>
+        <v>0.0008601489940545937</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0001012320211742572</v>
+        <v>0.001326469707925423</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0001506125057121621</v>
+        <v>0.001093308866010501</v>
       </c>
       <c r="L11" t="n">
-        <v>0.005710718085316045</v>
+        <v>0.004651516729608417</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01612211276455695</v>
+        <v>0.01839398646909126</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000073544221809</v>
+        <v>1.000052681083612</v>
       </c>
       <c r="O11" t="n">
-        <v>0.01619658019438135</v>
+        <v>0.01854173170575225</v>
       </c>
       <c r="P11" t="n">
-        <v>3534.510253942772</v>
+        <v>3533.982925960469</v>
       </c>
       <c r="Q11" t="n">
-        <v>9487.837069388779</v>
+        <v>8523.002800288119</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_10</t>
+          <t>model_8_9_14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9992900771604076</v>
+        <v>0.9993155923126078</v>
       </c>
       <c r="C12" t="n">
-        <v>0.791900662915506</v>
+        <v>0.7208356343731059</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9981597654197797</v>
+        <v>0.9981907650889488</v>
       </c>
       <c r="E12" t="n">
-        <v>0.997070001621741</v>
+        <v>0.9970774202456613</v>
       </c>
       <c r="F12" t="n">
-        <v>0.99766252318798</v>
+        <v>0.9976606785228004</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0003530871078484167</v>
+        <v>0.0003362558631050765</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1235367559166458</v>
+        <v>0.165724026708803</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0008761123581294475</v>
+        <v>0.0008650452521302136</v>
       </c>
       <c r="J12" t="n">
-        <v>0.001278329926596212</v>
+        <v>0.001294497114793867</v>
       </c>
       <c r="K12" t="n">
-        <v>0.001077221636127305</v>
+        <v>0.001079770839178559</v>
       </c>
       <c r="L12" t="n">
-        <v>0.005923631844751961</v>
+        <v>0.004723373845607442</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01879061222654591</v>
+        <v>0.01833728069003353</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000099904835403</v>
+        <v>1.000052356769231</v>
       </c>
       <c r="O12" t="n">
-        <v>0.01887740535457898</v>
+        <v>0.01848457045127264</v>
       </c>
       <c r="P12" t="n">
-        <v>3533.897591534058</v>
+        <v>3533.995276380913</v>
       </c>
       <c r="Q12" t="n">
-        <v>9487.224406980065</v>
+        <v>8523.015150708563</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_11</t>
+          <t>model_8_9_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.999243723553094</v>
+        <v>0.999319431691473</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7913796448373686</v>
+        <v>0.7207814283649173</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9980194530290388</v>
+        <v>0.9981766059278513</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9967998126674181</v>
+        <v>0.9971577334179783</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9974621582226922</v>
+        <v>0.9976918808009564</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0003761415304305949</v>
+        <v>0.0003343695405550901</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1238460547546373</v>
+        <v>0.1657562057368414</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0009429133088604495</v>
+        <v>0.0008718151386754297</v>
       </c>
       <c r="J13" t="n">
-        <v>0.00139621075161971</v>
+        <v>0.001258924032591377</v>
       </c>
       <c r="K13" t="n">
-        <v>0.001169559440130321</v>
+        <v>0.001065368667267923</v>
       </c>
       <c r="L13" t="n">
-        <v>0.005917828044822478</v>
+        <v>0.004800735381653261</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0193943685236358</v>
+        <v>0.01828577426731201</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000106428008417</v>
+        <v>1.000052063059098</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0194839503791974</v>
+        <v>0.01843265031569843</v>
       </c>
       <c r="P13" t="n">
-        <v>3533.771090149359</v>
+        <v>3534.006527535518</v>
       </c>
       <c r="Q13" t="n">
-        <v>9487.097905595367</v>
+        <v>8523.02640186317</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.999205330826806</v>
+        <v>0.9993225909404659</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7910889262883316</v>
+        <v>0.7207120212989443</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9979049759004647</v>
+        <v>0.9981567447432594</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9965734163274766</v>
+        <v>0.9972476375243621</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9972958566807519</v>
+        <v>0.9977247272481081</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0003952365305227857</v>
+        <v>0.0003328173721378453</v>
       </c>
       <c r="H14" t="n">
-        <v>0.124018637843733</v>
+        <v>0.1657974087694321</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0009974144187434068</v>
+        <v>0.0008813113203641407</v>
       </c>
       <c r="J14" t="n">
-        <v>0.001494985282952732</v>
+        <v>0.001219102841690053</v>
       </c>
       <c r="K14" t="n">
-        <v>0.001246199181828795</v>
+        <v>0.001050207589087483</v>
       </c>
       <c r="L14" t="n">
-        <v>0.005883202207521505</v>
+        <v>0.004882172049732024</v>
       </c>
       <c r="M14" t="n">
-        <v>0.01988055659489406</v>
+        <v>0.0182432829320231</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000111830875865</v>
+        <v>1.000051821378483</v>
       </c>
       <c r="O14" t="n">
-        <v>0.01997238413479038</v>
+        <v>0.0183898176790609</v>
       </c>
       <c r="P14" t="n">
-        <v>3533.672052321658</v>
+        <v>3534.015833300892</v>
       </c>
       <c r="Q14" t="n">
-        <v>9486.998867767667</v>
+        <v>8523.035707628544</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_13</t>
+          <t>model_8_9_11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9991665136747683</v>
+        <v>0.9993244471996695</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7908133947685747</v>
+        <v>0.7206214727022837</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9977884325633775</v>
+        <v>0.9981298400884203</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9963575041483905</v>
+        <v>0.9973459057948706</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9971334448592141</v>
+        <v>0.9977579437580619</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0004145426229366534</v>
+        <v>0.0003319053747244068</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1241822052562026</v>
+        <v>0.1658511623279055</v>
       </c>
       <c r="I15" t="n">
-        <v>0.001052899224309654</v>
+        <v>0.0008941751799915447</v>
       </c>
       <c r="J15" t="n">
-        <v>0.001589185676403576</v>
+        <v>0.001175576914823466</v>
       </c>
       <c r="K15" t="n">
-        <v>0.001321046353455833</v>
+        <v>0.001034875699401955</v>
       </c>
       <c r="L15" t="n">
-        <v>0.005854862162562503</v>
+        <v>0.004970837718020205</v>
       </c>
       <c r="M15" t="n">
-        <v>0.02036031981420364</v>
+        <v>0.0182182703549049</v>
       </c>
       <c r="N15" t="n">
-        <v>1.00011729347119</v>
+        <v>1.00005167937579</v>
       </c>
       <c r="O15" t="n">
-        <v>0.02045436336228623</v>
+        <v>0.01836460419448134</v>
       </c>
       <c r="P15" t="n">
-        <v>3533.576669517825</v>
+        <v>3534.021321291126</v>
       </c>
       <c r="Q15" t="n">
-        <v>9486.903484963834</v>
+        <v>8523.041195618776</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_14</t>
+          <t>model_8_9_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9991306608328592</v>
+        <v>0.9993248073265418</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7905934711508492</v>
+        <v>0.7204996633173528</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9976851220804857</v>
+        <v>0.9980950122629572</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9961588857441946</v>
+        <v>0.9974546126385948</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9969860747734061</v>
+        <v>0.997792062186293</v>
       </c>
       <c r="G16" t="n">
-        <v>0.000432374386547883</v>
+        <v>0.0003317284410421642</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1243127614158901</v>
+        <v>0.165923473640692</v>
       </c>
       <c r="I16" t="n">
-        <v>0.001102084035723737</v>
+        <v>0.000910827326639227</v>
       </c>
       <c r="J16" t="n">
-        <v>0.00167584096329395</v>
+        <v>0.00112742743477919</v>
       </c>
       <c r="K16" t="n">
-        <v>0.001388961570468463</v>
+        <v>0.001019127507354965</v>
       </c>
       <c r="L16" t="n">
-        <v>0.005820579835135404</v>
+        <v>0.005065664839725423</v>
       </c>
       <c r="M16" t="n">
-        <v>0.02079361408095964</v>
+        <v>0.0182134137668413</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000122338910032</v>
+        <v>1.000051651826305</v>
       </c>
       <c r="O16" t="n">
-        <v>0.02088965899889209</v>
+        <v>0.01835970859705161</v>
       </c>
       <c r="P16" t="n">
-        <v>3533.492437419009</v>
+        <v>3534.022387744837</v>
       </c>
       <c r="Q16" t="n">
-        <v>9486.819252865016</v>
+        <v>8523.042262072488</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_15</t>
+          <t>model_8_9_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9990934379517639</v>
+        <v>0.999322946186644</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7903441675280434</v>
+        <v>0.7203435621014727</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9975894016473486</v>
+        <v>0.9980502979164028</v>
       </c>
       <c r="E17" t="n">
-        <v>0.995949258317716</v>
+        <v>0.9975733046250336</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9968374022065001</v>
+        <v>0.9978258521291329</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0004508875526256344</v>
+        <v>0.0003326428363860978</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1244607588157434</v>
+        <v>0.1660161420656599</v>
       </c>
       <c r="I17" t="n">
-        <v>0.001147655320655737</v>
+        <v>0.0009322064924693373</v>
       </c>
       <c r="J17" t="n">
-        <v>0.001767299380026044</v>
+        <v>0.001074855239352861</v>
       </c>
       <c r="K17" t="n">
-        <v>0.001457477033358218</v>
+        <v>0.001003530935745807</v>
       </c>
       <c r="L17" t="n">
-        <v>0.005805936546673321</v>
+        <v>0.005164502394333884</v>
       </c>
       <c r="M17" t="n">
-        <v>0.02123411294652156</v>
+        <v>0.0182384987426624</v>
       </c>
       <c r="N17" t="n">
-        <v>1.00012757714946</v>
+        <v>1.000051794202368</v>
       </c>
       <c r="O17" t="n">
-        <v>0.02133219251207358</v>
+        <v>0.0183849950618591</v>
       </c>
       <c r="P17" t="n">
-        <v>3533.408585157078</v>
+        <v>3534.016882413993</v>
       </c>
       <c r="Q17" t="n">
-        <v>9486.735400603086</v>
+        <v>8523.036756741643</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_16</t>
+          <t>model_8_9_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9990650178839429</v>
+        <v>0.999318235442429</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7900556206952702</v>
+        <v>0.7201334760404929</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9975031486971517</v>
+        <v>0.9979920052235081</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9958022211243021</v>
+        <v>0.997704853585911</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9967232349819855</v>
+        <v>0.9978587773759472</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0004650225529272301</v>
+        <v>0.0003349572688377837</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1246320526802517</v>
+        <v>0.1661408582267027</v>
       </c>
       <c r="I18" t="n">
-        <v>0.001188719256962963</v>
+        <v>0.000960077841244686</v>
       </c>
       <c r="J18" t="n">
-        <v>0.001831450284019151</v>
+        <v>0.001016588309235023</v>
       </c>
       <c r="K18" t="n">
-        <v>0.001510090776412836</v>
+        <v>0.0009883334856606953</v>
       </c>
       <c r="L18" t="n">
-        <v>0.005769696211579061</v>
+        <v>0.005270397583565295</v>
       </c>
       <c r="M18" t="n">
-        <v>0.02156438157998578</v>
+        <v>0.01830183785410044</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000131576601287</v>
+        <v>1.000052154571418</v>
       </c>
       <c r="O18" t="n">
-        <v>0.02166398664387942</v>
+        <v>0.01844884292935309</v>
       </c>
       <c r="P18" t="n">
-        <v>3533.346849305269</v>
+        <v>3534.003015179966</v>
       </c>
       <c r="Q18" t="n">
-        <v>9486.673664751275</v>
+        <v>8523.022889507616</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_17</t>
+          <t>model_8_9_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9988631712195732</v>
+        <v>0.9993106238141537</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7888309658484527</v>
+        <v>0.7198694745137943</v>
       </c>
       <c r="D19" t="n">
-        <v>0.996940470612666</v>
+        <v>0.9979207711046493</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9948017186015949</v>
+        <v>0.9978520358815101</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9959590105343036</v>
+        <v>0.9978925038145479</v>
       </c>
       <c r="G19" t="n">
-        <v>0.000565412977035946</v>
+        <v>0.0003386969326120247</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1253590606996574</v>
+        <v>0.1662975809372231</v>
       </c>
       <c r="I19" t="n">
-        <v>0.001456603160876756</v>
+        <v>0.0009941368437170158</v>
       </c>
       <c r="J19" t="n">
-        <v>0.002267959848632457</v>
+        <v>0.0009513969122444085</v>
       </c>
       <c r="K19" t="n">
-        <v>0.001862282124650858</v>
+        <v>0.0009727662259807463</v>
       </c>
       <c r="L19" t="n">
-        <v>0.005723142089702839</v>
+        <v>0.005379054631275026</v>
       </c>
       <c r="M19" t="n">
-        <v>0.02377841409842015</v>
+        <v>0.0184037206187234</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000159981741474</v>
+        <v>1.000052736856322</v>
       </c>
       <c r="O19" t="n">
-        <v>0.0238882456948783</v>
+        <v>0.01855154404258124</v>
       </c>
       <c r="P19" t="n">
-        <v>3532.955908322024</v>
+        <v>3533.980809709076</v>
       </c>
       <c r="Q19" t="n">
-        <v>9486.282723768032</v>
+        <v>8523.000684036726</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_18</t>
+          <t>model_8_9_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9988487189468822</v>
+        <v>0.9992990984600908</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7887332908025853</v>
+        <v>0.7195024169935316</v>
       </c>
       <c r="D20" t="n">
-        <v>0.996892899426537</v>
+        <v>0.9978322650064861</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9947401928377578</v>
+        <v>0.9980176869159152</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9959053186985712</v>
+        <v>0.9979261401055171</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0005726009570271849</v>
+        <v>0.00034435944627077</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1254170448262266</v>
+        <v>0.1665154821373104</v>
       </c>
       <c r="I20" t="n">
-        <v>0.001479251199614009</v>
+        <v>0.001036454057215862</v>
       </c>
       <c r="J20" t="n">
-        <v>0.002294802943752651</v>
+        <v>0.0008780251639519541</v>
       </c>
       <c r="K20" t="n">
-        <v>0.00188702590257277</v>
+        <v>0.0009572405761371315</v>
       </c>
       <c r="L20" t="n">
-        <v>0.005700947453751983</v>
+        <v>0.005498017167904069</v>
       </c>
       <c r="M20" t="n">
-        <v>0.02392908182582827</v>
+        <v>0.01855692448308097</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000162015556762</v>
+        <v>1.000053618538855</v>
       </c>
       <c r="O20" t="n">
-        <v>0.02403960935082764</v>
+        <v>0.01870597847983474</v>
       </c>
       <c r="P20" t="n">
-        <v>3532.930642987861</v>
+        <v>3533.947649088342</v>
       </c>
       <c r="Q20" t="n">
-        <v>9486.257458433869</v>
+        <v>8522.967523415993</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_19</t>
+          <t>model_8_9_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9988339967916273</v>
+        <v>0.999282255820702</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7886159290473413</v>
+        <v>0.7190245762039058</v>
       </c>
       <c r="D21" t="n">
-        <v>0.996855778688971</v>
+        <v>0.9977233121214834</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9946660933960731</v>
+        <v>0.9982014073400335</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9958510725303569</v>
+        <v>0.9979578597050707</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0005799231657663899</v>
+        <v>0.0003526343916710133</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1254867158339033</v>
+        <v>0.1667991490716796</v>
       </c>
       <c r="I21" t="n">
-        <v>0.001496923912252955</v>
+        <v>0.001088547445035123</v>
       </c>
       <c r="J21" t="n">
-        <v>0.00232713181278975</v>
+        <v>0.0007966499478960555</v>
       </c>
       <c r="K21" t="n">
-        <v>0.001912025143539339</v>
+        <v>0.0009425996219278902</v>
       </c>
       <c r="L21" t="n">
-        <v>0.005688067905155338</v>
+        <v>0.005608069722828606</v>
       </c>
       <c r="M21" t="n">
-        <v>0.02408159392080163</v>
+        <v>0.01877856202351536</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000164087351632</v>
+        <v>1.00005490699046</v>
       </c>
       <c r="O21" t="n">
-        <v>0.02419282589340632</v>
+        <v>0.01892939627007629</v>
       </c>
       <c r="P21" t="n">
-        <v>3532.905229872031</v>
+        <v>3533.900157510806</v>
       </c>
       <c r="Q21" t="n">
-        <v>9486.232045318038</v>
+        <v>8522.920031838457</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_20</t>
+          <t>model_8_9_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.998824617716902</v>
+        <v>0.999258831813302</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7885310968135443</v>
+        <v>0.7184163083542026</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9968267066106595</v>
+        <v>0.9975898644475896</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9946241992928112</v>
+        <v>0.9984053275809586</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9958162122243887</v>
+        <v>0.9979865847292665</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0005845879408438337</v>
+        <v>0.0003641428243942963</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1255370759124469</v>
+        <v>0.1671602431430664</v>
       </c>
       <c r="I22" t="n">
-        <v>0.001510764760239935</v>
+        <v>0.001152352468918158</v>
       </c>
       <c r="J22" t="n">
-        <v>0.002345409804458621</v>
+        <v>0.0007063276348321835</v>
       </c>
       <c r="K22" t="n">
-        <v>0.001928090447647576</v>
+        <v>0.0009293408869555258</v>
       </c>
       <c r="L22" t="n">
-        <v>0.005662904720224847</v>
+        <v>0.005702585799701715</v>
       </c>
       <c r="M22" t="n">
-        <v>0.02417825346967464</v>
+        <v>0.01908252667741608</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000165407234392</v>
+        <v>1.000056698912691</v>
       </c>
       <c r="O22" t="n">
-        <v>0.02428993190908413</v>
+        <v>0.01923580244636274</v>
       </c>
       <c r="P22" t="n">
-        <v>3532.889206667093</v>
+        <v>3533.835928785154</v>
       </c>
       <c r="Q22" t="n">
-        <v>9486.216022113102</v>
+        <v>8522.855803112803</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_21</t>
+          <t>model_8_9_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9988102884592593</v>
+        <v>0.999226156528494</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7884986631301152</v>
+        <v>0.7176042236844921</v>
       </c>
       <c r="D23" t="n">
-        <v>0.996786721412773</v>
+        <v>0.99742561221531</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9945574399302376</v>
+        <v>0.9986252164585679</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9957639704608586</v>
+        <v>0.9980070157028075</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0005917147380907033</v>
+        <v>0.0003801964957625497</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1255563299479925</v>
+        <v>0.1676423316832376</v>
       </c>
       <c r="I23" t="n">
-        <v>0.001529801206129544</v>
+        <v>0.001230886004180679</v>
       </c>
       <c r="J23" t="n">
-        <v>0.002374536268040184</v>
+        <v>0.0006089323397275514</v>
       </c>
       <c r="K23" t="n">
-        <v>0.001952165962619365</v>
+        <v>0.000919910473196432</v>
       </c>
       <c r="L23" t="n">
-        <v>0.005661525174611754</v>
+        <v>0.005848893501834804</v>
       </c>
       <c r="M23" t="n">
-        <v>0.02432518731871768</v>
+        <v>0.01949862804821277</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000167423738224</v>
+        <v>1.000059198551982</v>
       </c>
       <c r="O23" t="n">
-        <v>0.02443754444002527</v>
+        <v>0.0196552460505359</v>
       </c>
       <c r="P23" t="n">
-        <v>3532.864971801092</v>
+        <v>3533.749644689558</v>
       </c>
       <c r="Q23" t="n">
-        <v>9486.1917872471</v>
+        <v>8522.769519017209</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_22</t>
+          <t>model_8_9_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9987996499338263</v>
+        <v>0.9991789937843508</v>
       </c>
       <c r="C24" t="n">
-        <v>0.788425062459941</v>
+        <v>0.716515603110234</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9967632020038264</v>
+        <v>0.9972145375964241</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9945010320180095</v>
+        <v>0.9988543912411153</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9957251131955983</v>
+        <v>0.9980076539729572</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0005970059133669458</v>
+        <v>0.0004033679906630328</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1256000224851913</v>
+        <v>0.1682885838820774</v>
       </c>
       <c r="I24" t="n">
-        <v>0.001540998498613644</v>
+        <v>0.00133180661752787</v>
       </c>
       <c r="J24" t="n">
-        <v>0.002399146494050198</v>
+        <v>0.0005074240423574947</v>
       </c>
       <c r="K24" t="n">
-        <v>0.001970073257632446</v>
+        <v>0.0009196158640535983</v>
       </c>
       <c r="L24" t="n">
-        <v>0.005651447048391841</v>
+        <v>0.006013790014127817</v>
       </c>
       <c r="M24" t="n">
-        <v>0.02443370445444051</v>
+        <v>0.02008402326883318</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000168920858858</v>
+        <v>1.000062806473045</v>
       </c>
       <c r="O24" t="n">
-        <v>0.02454656281229861</v>
+        <v>0.02024534331633592</v>
       </c>
       <c r="P24" t="n">
-        <v>3532.847167078967</v>
+        <v>3533.631322568939</v>
       </c>
       <c r="Q24" t="n">
-        <v>9486.173982524975</v>
+        <v>8522.65119689659</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_23</t>
+          <t>model_8_9_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9987905793826409</v>
+        <v>0.9991052164403522</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7883243606578263</v>
+        <v>0.715159667612999</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9967374229717486</v>
+        <v>0.9969321182899578</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9944592566495954</v>
+        <v>0.9990465326473472</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9956920328770748</v>
+        <v>0.9979535756774847</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0006015172412268985</v>
+        <v>0.0004396154860387862</v>
       </c>
       <c r="H25" t="n">
-        <v>0.125659803425018</v>
+        <v>0.1690935257665997</v>
       </c>
       <c r="I25" t="n">
-        <v>0.001553271569029074</v>
+        <v>0.001466839099311373</v>
       </c>
       <c r="J25" t="n">
-        <v>0.002417372682854448</v>
+        <v>0.0004223189239666744</v>
       </c>
       <c r="K25" t="n">
-        <v>0.001985318257993656</v>
+        <v>0.0009445770192658326</v>
       </c>
       <c r="L25" t="n">
-        <v>0.005642468314661155</v>
+        <v>0.006190494949343751</v>
       </c>
       <c r="M25" t="n">
-        <v>0.02452584843031732</v>
+        <v>0.02096700946818087</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000170197324233</v>
+        <v>1.00006845039471</v>
       </c>
       <c r="O25" t="n">
-        <v>0.02463913239771914</v>
+        <v>0.02113542188824842</v>
       </c>
       <c r="P25" t="n">
-        <v>3532.832110718483</v>
+        <v>3533.459220216975</v>
       </c>
       <c r="Q25" t="n">
-        <v>9486.158926164491</v>
+        <v>8522.479094544626</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_24</t>
+          <t>model_8_9_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9987819693532808</v>
+        <v>0.9989903302550924</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7882498706090502</v>
+        <v>0.7134136083428002</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9967155497791278</v>
+        <v>0.9965433910106029</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9944169729252116</v>
+        <v>0.9991579628839591</v>
       </c>
       <c r="F26" t="n">
-        <v>0.99566070379114</v>
+        <v>0.9978057073359038</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0006057995240268142</v>
+        <v>0.0004960601375162716</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1257040239357741</v>
+        <v>0.1701300619752228</v>
       </c>
       <c r="I26" t="n">
-        <v>0.001563685118786726</v>
+        <v>0.001652700363277403</v>
       </c>
       <c r="J26" t="n">
-        <v>0.002435820662446837</v>
+        <v>0.0003729631725690454</v>
       </c>
       <c r="K26" t="n">
-        <v>0.001999756206227176</v>
+        <v>0.001012829256007493</v>
       </c>
       <c r="L26" t="n">
-        <v>0.005632546606809532</v>
+        <v>0.006389459362625164</v>
       </c>
       <c r="M26" t="n">
-        <v>0.02461299502349956</v>
+        <v>0.02227240753749517</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000171408982061</v>
+        <v>1.000077239117573</v>
       </c>
       <c r="O26" t="n">
-        <v>0.0247266815177232</v>
+        <v>0.0224513052510586</v>
       </c>
       <c r="P26" t="n">
-        <v>3532.81792289013</v>
+        <v>3533.217626787193</v>
       </c>
       <c r="Q26" t="n">
-        <v>9486.144738336137</v>
+        <v>8522.237501114843</v>
       </c>
     </row>
   </sheetData>
